--- a/data/Dataset_employee_final.xlsx
+++ b/data/Dataset_employee_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macintosh/TA-DOCUMENT/StudyZone/ComputerScience/Artificial Intelligence/FPT/MultimodalRAG-LlamaIndex-Guardrail/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ECFEAC-C03A-2E4A-9717-857D0D679AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86F0F1A-6513-2F42-8E10-709648DF7E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="760" windowWidth="29400" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="760" windowWidth="29400" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HCMSite" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,25 @@
     <sheet name="CTSite" sheetId="4" r:id="rId5"/>
     <sheet name="NTSite" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="823">
   <si>
     <t>Employee ID</t>
   </si>
@@ -822,189 +835,6 @@
     <t>Operations</t>
   </si>
   <si>
-    <t>kbrown</t>
-  </si>
-  <si>
-    <t>nmata</t>
-  </si>
-  <si>
-    <t>alejandro61</t>
-  </si>
-  <si>
-    <t>michaelmiller</t>
-  </si>
-  <si>
-    <t>smithandrew</t>
-  </si>
-  <si>
-    <t>aprilgay</t>
-  </si>
-  <si>
-    <t>ann23</t>
-  </si>
-  <si>
-    <t>julie11</t>
-  </si>
-  <si>
-    <t>langvanessa</t>
-  </si>
-  <si>
-    <t>bautistadennis</t>
-  </si>
-  <si>
-    <t>thoffman</t>
-  </si>
-  <si>
-    <t>ericmoran</t>
-  </si>
-  <si>
-    <t>nicole47</t>
-  </si>
-  <si>
-    <t>carrsarah</t>
-  </si>
-  <si>
-    <t>michaelbenton</t>
-  </si>
-  <si>
-    <t>hinesjoseph</t>
-  </si>
-  <si>
-    <t>xporter</t>
-  </si>
-  <si>
-    <t>thomasmiller</t>
-  </si>
-  <si>
-    <t>jillian17</t>
-  </si>
-  <si>
-    <t>hunterwarren</t>
-  </si>
-  <si>
-    <t>darrenmiller</t>
-  </si>
-  <si>
-    <t>markmorse</t>
-  </si>
-  <si>
-    <t>gary79</t>
-  </si>
-  <si>
-    <t>denise43</t>
-  </si>
-  <si>
-    <t>hdoyle</t>
-  </si>
-  <si>
-    <t>schneiderlisa</t>
-  </si>
-  <si>
-    <t>jasonfranklin</t>
-  </si>
-  <si>
-    <t>shannonmaldonado</t>
-  </si>
-  <si>
-    <t>shane63</t>
-  </si>
-  <si>
-    <t>ggutierrez</t>
-  </si>
-  <si>
-    <t>tranbrandon</t>
-  </si>
-  <si>
-    <t>jeanettegraham</t>
-  </si>
-  <si>
-    <t>yrobinson</t>
-  </si>
-  <si>
-    <t>lopezsuzanne</t>
-  </si>
-  <si>
-    <t>taylormicheal</t>
-  </si>
-  <si>
-    <t>whiteheadgary</t>
-  </si>
-  <si>
-    <t>seansanchez</t>
-  </si>
-  <si>
-    <t>jillbrady</t>
-  </si>
-  <si>
-    <t>colemanrachel</t>
-  </si>
-  <si>
-    <t>philip66</t>
-  </si>
-  <si>
-    <t>michael05</t>
-  </si>
-  <si>
-    <t>phillipslisa</t>
-  </si>
-  <si>
-    <t>noahchristian</t>
-  </si>
-  <si>
-    <t>thomasmorris</t>
-  </si>
-  <si>
-    <t>james11</t>
-  </si>
-  <si>
-    <t>youngjeffrey</t>
-  </si>
-  <si>
-    <t>louislarson</t>
-  </si>
-  <si>
-    <t>stephanie19</t>
-  </si>
-  <si>
-    <t>michael38</t>
-  </si>
-  <si>
-    <t>tony90</t>
-  </si>
-  <si>
-    <t>shari40</t>
-  </si>
-  <si>
-    <t>speterson</t>
-  </si>
-  <si>
-    <t>pbarnes</t>
-  </si>
-  <si>
-    <t>heatherthornton</t>
-  </si>
-  <si>
-    <t>martinedwards</t>
-  </si>
-  <si>
-    <t>wjohnson</t>
-  </si>
-  <si>
-    <t>eric90</t>
-  </si>
-  <si>
-    <t>ujuarez</t>
-  </si>
-  <si>
-    <t>ashleybryant</t>
-  </si>
-  <si>
-    <t>jasonhouse</t>
-  </si>
-  <si>
-    <t>walterskaren</t>
-  </si>
-  <si>
     <t>zQ+2LaEP</t>
   </si>
   <si>
@@ -1386,9 +1216,6 @@
     <t>186-143-1307</t>
   </si>
   <si>
-    <t>user820</t>
-  </si>
-  <si>
     <t>$Ug9</t>
   </si>
   <si>
@@ -1404,9 +1231,6 @@
     <t>180-132-6302</t>
   </si>
   <si>
-    <t>user634</t>
-  </si>
-  <si>
     <t>!Pd3</t>
   </si>
   <si>
@@ -1422,9 +1246,6 @@
     <t>228-906-9467</t>
   </si>
   <si>
-    <t>user604</t>
-  </si>
-  <si>
     <t>!Sr2</t>
   </si>
   <si>
@@ -1440,9 +1261,6 @@
     <t>274-654-2208</t>
   </si>
   <si>
-    <t>user947</t>
-  </si>
-  <si>
     <t>@Ld4</t>
   </si>
   <si>
@@ -1458,9 +1276,6 @@
     <t>544-588-9829</t>
   </si>
   <si>
-    <t>user876</t>
-  </si>
-  <si>
     <t>#Br0</t>
   </si>
   <si>
@@ -1476,9 +1291,6 @@
     <t>870-615-9286</t>
   </si>
   <si>
-    <t>user839</t>
-  </si>
-  <si>
     <t>$Ye3</t>
   </si>
   <si>
@@ -1494,9 +1306,6 @@
     <t>326-975-3344</t>
   </si>
   <si>
-    <t>user874</t>
-  </si>
-  <si>
     <t>@Gd2</t>
   </si>
   <si>
@@ -1512,9 +1321,6 @@
     <t>428-119-4912</t>
   </si>
   <si>
-    <t>user309</t>
-  </si>
-  <si>
     <t>@Ib4</t>
   </si>
   <si>
@@ -1530,9 +1336,6 @@
     <t>510-550-6368</t>
   </si>
   <si>
-    <t>user555</t>
-  </si>
-  <si>
     <t>#Ay3</t>
   </si>
   <si>
@@ -1548,9 +1351,6 @@
     <t>280-423-8148</t>
   </si>
   <si>
-    <t>user568</t>
-  </si>
-  <si>
     <t>@Vf1</t>
   </si>
   <si>
@@ -1566,9 +1366,6 @@
     <t>929-882-9032</t>
   </si>
   <si>
-    <t>user573</t>
-  </si>
-  <si>
     <t>$Iw4</t>
   </si>
   <si>
@@ -1584,9 +1381,6 @@
     <t>360-849-6116</t>
   </si>
   <si>
-    <t>user672</t>
-  </si>
-  <si>
     <t>$Dv3</t>
   </si>
   <si>
@@ -1602,9 +1396,6 @@
     <t>698-561-3937</t>
   </si>
   <si>
-    <t>user500</t>
-  </si>
-  <si>
     <t>#Uh3</t>
   </si>
   <si>
@@ -1620,9 +1411,6 @@
     <t>721-943-4224</t>
   </si>
   <si>
-    <t>user156</t>
-  </si>
-  <si>
     <t>$Af9</t>
   </si>
   <si>
@@ -1638,9 +1426,6 @@
     <t>249-210-1025</t>
   </si>
   <si>
-    <t>user982</t>
-  </si>
-  <si>
     <t>$Hv5</t>
   </si>
   <si>
@@ -1656,9 +1441,6 @@
     <t>564-989-3934</t>
   </si>
   <si>
-    <t>user849</t>
-  </si>
-  <si>
     <t>!Il0</t>
   </si>
   <si>
@@ -1674,9 +1456,6 @@
     <t>217-545-3721</t>
   </si>
   <si>
-    <t>user763</t>
-  </si>
-  <si>
     <t>!Tg9</t>
   </si>
   <si>
@@ -1692,9 +1471,6 @@
     <t>972-328-6627</t>
   </si>
   <si>
-    <t>user380</t>
-  </si>
-  <si>
     <t>#Tc7</t>
   </si>
   <si>
@@ -1710,9 +1486,6 @@
     <t>863-221-6446</t>
   </si>
   <si>
-    <t>user104</t>
-  </si>
-  <si>
     <t>!To0</t>
   </si>
   <si>
@@ -1728,9 +1501,6 @@
     <t>569-387-9717</t>
   </si>
   <si>
-    <t>user712</t>
-  </si>
-  <si>
     <t>$Gb9</t>
   </si>
   <si>
@@ -1746,9 +1516,6 @@
     <t>939-796-6272</t>
   </si>
   <si>
-    <t>user405</t>
-  </si>
-  <si>
     <t>#Nj4</t>
   </si>
   <si>
@@ -1764,9 +1531,6 @@
     <t>691-141-3322</t>
   </si>
   <si>
-    <t>user443</t>
-  </si>
-  <si>
     <t>@Rd2</t>
   </si>
   <si>
@@ -1782,9 +1546,6 @@
     <t>652-538-1207</t>
   </si>
   <si>
-    <t>user642</t>
-  </si>
-  <si>
     <t>!Nz7</t>
   </si>
   <si>
@@ -1800,9 +1561,6 @@
     <t>879-266-4421</t>
   </si>
   <si>
-    <t>user666</t>
-  </si>
-  <si>
     <t>!Je1</t>
   </si>
   <si>
@@ -1818,9 +1576,6 @@
     <t>229-835-9408</t>
   </si>
   <si>
-    <t>user253</t>
-  </si>
-  <si>
     <t>#Nn7</t>
   </si>
   <si>
@@ -1836,9 +1591,6 @@
     <t>481-124-6103</t>
   </si>
   <si>
-    <t>user888</t>
-  </si>
-  <si>
     <t>#Dj7</t>
   </si>
   <si>
@@ -1854,9 +1606,6 @@
     <t>871-334-2740</t>
   </si>
   <si>
-    <t>user453</t>
-  </si>
-  <si>
     <t>#Ww2</t>
   </si>
   <si>
@@ -1872,9 +1621,6 @@
     <t>391-826-4781</t>
   </si>
   <si>
-    <t>user457</t>
-  </si>
-  <si>
     <t>#Tg0</t>
   </si>
   <si>
@@ -1890,9 +1636,6 @@
     <t>827-655-8179</t>
   </si>
   <si>
-    <t>user797</t>
-  </si>
-  <si>
     <t>@Pi0</t>
   </si>
   <si>
@@ -1908,9 +1651,6 @@
     <t>716-312-2162</t>
   </si>
   <si>
-    <t>user507</t>
-  </si>
-  <si>
     <t>#Ln7</t>
   </si>
   <si>
@@ -1926,9 +1666,6 @@
     <t>794-521-1623</t>
   </si>
   <si>
-    <t>user511</t>
-  </si>
-  <si>
     <t>#Gn5</t>
   </si>
   <si>
@@ -1944,9 +1681,6 @@
     <t>588-870-5051</t>
   </si>
   <si>
-    <t>user129</t>
-  </si>
-  <si>
     <t>#Pj6</t>
   </si>
   <si>
@@ -1962,9 +1696,6 @@
     <t>317-763-5403</t>
   </si>
   <si>
-    <t>user471</t>
-  </si>
-  <si>
     <t>@Ls7</t>
   </si>
   <si>
@@ -1980,9 +1711,6 @@
     <t>274-248-3997</t>
   </si>
   <si>
-    <t>user921</t>
-  </si>
-  <si>
     <t>!Bj2</t>
   </si>
   <si>
@@ -1998,9 +1726,6 @@
     <t>641-679-1807</t>
   </si>
   <si>
-    <t>user731</t>
-  </si>
-  <si>
     <t>#Of6</t>
   </si>
   <si>
@@ -2016,9 +1741,6 @@
     <t>493-173-9067</t>
   </si>
   <si>
-    <t>user954</t>
-  </si>
-  <si>
     <t>!So2</t>
   </si>
   <si>
@@ -2034,9 +1756,6 @@
     <t>914-830-7066</t>
   </si>
   <si>
-    <t>user602</t>
-  </si>
-  <si>
     <t>@Ma9</t>
   </si>
   <si>
@@ -2052,9 +1771,6 @@
     <t>976-871-2823</t>
   </si>
   <si>
-    <t>user107</t>
-  </si>
-  <si>
     <t>!Ci3</t>
   </si>
   <si>
@@ -2070,9 +1786,6 @@
     <t>877-494-1199</t>
   </si>
   <si>
-    <t>user717</t>
-  </si>
-  <si>
     <t>@Kq8</t>
   </si>
   <si>
@@ -2088,9 +1801,6 @@
     <t>523-161-6208</t>
   </si>
   <si>
-    <t>user237</t>
-  </si>
-  <si>
     <t>!Ba5</t>
   </si>
   <si>
@@ -2106,9 +1816,6 @@
     <t>133-745-5863</t>
   </si>
   <si>
-    <t>user794</t>
-  </si>
-  <si>
     <t>!Cp3</t>
   </si>
   <si>
@@ -2124,9 +1831,6 @@
     <t>136-868-2483</t>
   </si>
   <si>
-    <t>user996</t>
-  </si>
-  <si>
     <t>!Of3</t>
   </si>
   <si>
@@ -2142,9 +1846,6 @@
     <t>390-297-1894</t>
   </si>
   <si>
-    <t>user951</t>
-  </si>
-  <si>
     <t>!Gu6</t>
   </si>
   <si>
@@ -2160,9 +1861,6 @@
     <t>354-180-1136</t>
   </si>
   <si>
-    <t>user476</t>
-  </si>
-  <si>
     <t>!Tg2</t>
   </si>
   <si>
@@ -2178,9 +1876,6 @@
     <t>289-229-4419</t>
   </si>
   <si>
-    <t>user821</t>
-  </si>
-  <si>
     <t>!Gf5</t>
   </si>
   <si>
@@ -2196,9 +1891,6 @@
     <t>268-984-3852</t>
   </si>
   <si>
-    <t>user248</t>
-  </si>
-  <si>
     <t>@Je6</t>
   </si>
   <si>
@@ -2214,9 +1906,6 @@
     <t>276-637-5419</t>
   </si>
   <si>
-    <t>user985</t>
-  </si>
-  <si>
     <t>@Vr3</t>
   </si>
   <si>
@@ -2232,9 +1921,6 @@
     <t>971-608-4186</t>
   </si>
   <si>
-    <t>user359</t>
-  </si>
-  <si>
     <t>@Ti9</t>
   </si>
   <si>
@@ -2250,9 +1936,6 @@
     <t>898-129-2777</t>
   </si>
   <si>
-    <t>user226</t>
-  </si>
-  <si>
     <t>@Nf6</t>
   </si>
   <si>
@@ -2268,9 +1951,6 @@
     <t>389-246-6393</t>
   </si>
   <si>
-    <t>user910</t>
-  </si>
-  <si>
     <t>!Zo7</t>
   </si>
   <si>
@@ -2286,9 +1966,6 @@
     <t>321-440-5605</t>
   </si>
   <si>
-    <t>user677</t>
-  </si>
-  <si>
     <t>@Bf6</t>
   </si>
   <si>
@@ -2304,9 +1981,6 @@
     <t>614-169-5652</t>
   </si>
   <si>
-    <t>user632</t>
-  </si>
-  <si>
     <t>!Kw8</t>
   </si>
   <si>
@@ -2322,9 +1996,6 @@
     <t>985-865-7235</t>
   </si>
   <si>
-    <t>user904</t>
-  </si>
-  <si>
     <t>$Nf3</t>
   </si>
   <si>
@@ -2340,9 +2011,6 @@
     <t>441-523-7854</t>
   </si>
   <si>
-    <t>user424</t>
-  </si>
-  <si>
     <t>#Sz9</t>
   </si>
   <si>
@@ -2358,9 +2026,6 @@
     <t>374-960-7187</t>
   </si>
   <si>
-    <t>user212</t>
-  </si>
-  <si>
     <t>$Os5</t>
   </si>
   <si>
@@ -2376,9 +2041,6 @@
     <t>183-533-7237</t>
   </si>
   <si>
-    <t>user750</t>
-  </si>
-  <si>
     <t>#Er5</t>
   </si>
   <si>
@@ -2394,9 +2056,6 @@
     <t>274-505-3546</t>
   </si>
   <si>
-    <t>user337</t>
-  </si>
-  <si>
     <t>$Yd5</t>
   </si>
   <si>
@@ -2412,9 +2071,6 @@
     <t>580-429-4612</t>
   </si>
   <si>
-    <t>user460</t>
-  </si>
-  <si>
     <t>!Er7</t>
   </si>
   <si>
@@ -2430,9 +2086,6 @@
     <t>309-717-4968</t>
   </si>
   <si>
-    <t>user959</t>
-  </si>
-  <si>
     <t>!Bs1</t>
   </si>
   <si>
@@ -2448,9 +2101,6 @@
     <t>675-116-7250</t>
   </si>
   <si>
-    <t>user655</t>
-  </si>
-  <si>
     <t>#Rh5</t>
   </si>
   <si>
@@ -2464,9 +2114,6 @@
   </si>
   <si>
     <t>264-706-8704</t>
-  </si>
-  <si>
-    <t>user163</t>
   </si>
   <si>
     <t>$Oq4</t>
@@ -2898,7 +2545,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2921,11 +2568,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2935,6 +2591,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3241,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3250,13 +2915,24 @@
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>937</v>
-      </c>
+      <c r="A1" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3309,23 +2985,24 @@
       <c r="E3" t="s">
         <v>255</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="str">
+        <f>LOWER(LEFT(B3,1)&amp;IFERROR(MID(B3,FIND(" ",B3)+1,FIND(" ",B3,FIND(" ",B3)+1)-FIND(" ",B3)-1),MID(B3,FIND(" ",B3)+1,LEN(B3))))&amp;"1"</f>
+        <v>wperez1</v>
+      </c>
+      <c r="G3" t="s">
         <v>265</v>
       </c>
-      <c r="G3" t="s">
-        <v>326</v>
-      </c>
       <c r="H3" t="s">
-        <v>877</v>
+        <v>755</v>
       </c>
       <c r="I3">
         <v>67102</v>
       </c>
       <c r="J3" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K3" t="s">
-        <v>389</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -3344,23 +3021,24 @@
       <c r="E4" t="s">
         <v>256</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F20" si="0">LOWER(LEFT(B4,1)&amp;IFERROR(MID(B4,FIND(" ",B4)+1,FIND(" ",B4,FIND(" ",B4)+1)-FIND(" ",B4)-1),MID(B4,FIND(" ",B4)+1,LEN(B4))))&amp;"1"</f>
+        <v>bhorton1</v>
+      </c>
+      <c r="G4" t="s">
         <v>266</v>
       </c>
-      <c r="G4" t="s">
-        <v>327</v>
-      </c>
       <c r="H4" t="s">
-        <v>878</v>
+        <v>756</v>
       </c>
       <c r="I4">
         <v>91066</v>
       </c>
       <c r="J4" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K4" t="s">
-        <v>390</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -3379,23 +3057,24 @@
       <c r="E5" t="s">
         <v>257</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>lpruitt1</v>
+      </c>
+      <c r="G5" t="s">
         <v>267</v>
       </c>
-      <c r="G5" t="s">
-        <v>328</v>
-      </c>
       <c r="H5" t="s">
-        <v>879</v>
+        <v>757</v>
       </c>
       <c r="I5">
         <v>65571</v>
       </c>
       <c r="J5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K5" t="s">
-        <v>391</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -3414,23 +3093,24 @@
       <c r="E6" t="s">
         <v>258</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>jhiggins1</v>
+      </c>
+      <c r="G6" t="s">
         <v>268</v>
       </c>
-      <c r="G6" t="s">
-        <v>329</v>
-      </c>
       <c r="H6" t="s">
-        <v>880</v>
+        <v>758</v>
       </c>
       <c r="I6">
         <v>54619</v>
       </c>
       <c r="J6" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K6" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3449,23 +3129,24 @@
       <c r="E7" t="s">
         <v>255</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>mthomas1</v>
+      </c>
+      <c r="G7" t="s">
         <v>269</v>
       </c>
-      <c r="G7" t="s">
-        <v>330</v>
-      </c>
       <c r="H7" t="s">
-        <v>881</v>
+        <v>759</v>
       </c>
       <c r="I7">
         <v>89142</v>
       </c>
       <c r="J7" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K7" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3484,23 +3165,24 @@
       <c r="E8" t="s">
         <v>259</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>cfoster1</v>
+      </c>
+      <c r="G8" t="s">
         <v>270</v>
       </c>
-      <c r="G8" t="s">
-        <v>331</v>
-      </c>
       <c r="H8" t="s">
-        <v>882</v>
+        <v>760</v>
       </c>
       <c r="I8">
         <v>63479</v>
       </c>
       <c r="J8" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K8" t="s">
-        <v>394</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3519,23 +3201,24 @@
       <c r="E9" t="s">
         <v>259</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>dbeck1</v>
+      </c>
+      <c r="G9" t="s">
         <v>271</v>
       </c>
-      <c r="G9" t="s">
-        <v>332</v>
-      </c>
       <c r="H9" t="s">
-        <v>883</v>
+        <v>761</v>
       </c>
       <c r="I9">
         <v>77616</v>
       </c>
       <c r="J9" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K9" t="s">
-        <v>395</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3554,23 +3237,24 @@
       <c r="E10" t="s">
         <v>257</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>jsawyer1</v>
+      </c>
+      <c r="G10" t="s">
         <v>272</v>
       </c>
-      <c r="G10" t="s">
-        <v>333</v>
-      </c>
       <c r="H10" t="s">
-        <v>884</v>
+        <v>762</v>
       </c>
       <c r="I10">
         <v>55139</v>
       </c>
       <c r="J10" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K10" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -3589,23 +3273,24 @@
       <c r="E11" t="s">
         <v>260</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>jwilliams1</v>
+      </c>
+      <c r="G11" t="s">
         <v>273</v>
       </c>
-      <c r="G11" t="s">
-        <v>334</v>
-      </c>
       <c r="H11" t="s">
-        <v>885</v>
+        <v>763</v>
       </c>
       <c r="I11">
         <v>112594</v>
       </c>
       <c r="J11" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K11" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -3624,23 +3309,24 @@
       <c r="E12" t="s">
         <v>255</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>vnguyen1</v>
+      </c>
+      <c r="G12" t="s">
         <v>274</v>
       </c>
-      <c r="G12" t="s">
-        <v>335</v>
-      </c>
       <c r="H12" t="s">
-        <v>886</v>
+        <v>764</v>
       </c>
       <c r="I12">
         <v>94352</v>
       </c>
       <c r="J12" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K12" t="s">
-        <v>398</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -3659,23 +3345,24 @@
       <c r="E13" t="s">
         <v>257</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>avazquez1</v>
+      </c>
+      <c r="G13" t="s">
         <v>275</v>
       </c>
-      <c r="G13" t="s">
-        <v>336</v>
-      </c>
       <c r="H13" t="s">
-        <v>887</v>
+        <v>765</v>
       </c>
       <c r="I13">
         <v>94535</v>
       </c>
       <c r="J13" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K13" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -3694,23 +3381,24 @@
       <c r="E14" t="s">
         <v>258</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>csnyder1</v>
+      </c>
+      <c r="G14" t="s">
         <v>276</v>
       </c>
-      <c r="G14" t="s">
-        <v>337</v>
-      </c>
       <c r="H14" t="s">
-        <v>888</v>
+        <v>766</v>
       </c>
       <c r="I14">
         <v>93175</v>
       </c>
       <c r="J14" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>400</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3729,23 +3417,24 @@
       <c r="E15" t="s">
         <v>261</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>dferguson1</v>
+      </c>
+      <c r="G15" t="s">
         <v>277</v>
       </c>
-      <c r="G15" t="s">
-        <v>338</v>
-      </c>
       <c r="H15" t="s">
-        <v>889</v>
+        <v>767</v>
       </c>
       <c r="I15">
         <v>75856</v>
       </c>
       <c r="J15" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K15" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -3764,26 +3453,27 @@
       <c r="E16" t="s">
         <v>262</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>cbaker1</v>
+      </c>
+      <c r="G16" t="s">
         <v>278</v>
       </c>
-      <c r="G16" t="s">
-        <v>339</v>
-      </c>
       <c r="H16" t="s">
-        <v>890</v>
+        <v>768</v>
       </c>
       <c r="I16">
         <v>46386</v>
       </c>
       <c r="J16" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K16" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="O16" t="s">
-        <v>450</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3802,23 +3492,24 @@
       <c r="E17" t="s">
         <v>260</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>mthomas1</v>
+      </c>
+      <c r="G17" t="s">
         <v>279</v>
       </c>
-      <c r="G17" t="s">
-        <v>340</v>
-      </c>
       <c r="H17" t="s">
-        <v>891</v>
+        <v>769</v>
       </c>
       <c r="I17">
         <v>54230</v>
       </c>
       <c r="J17" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K17" t="s">
-        <v>403</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3837,23 +3528,24 @@
       <c r="E18" t="s">
         <v>262</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>gnewton1</v>
+      </c>
+      <c r="G18" t="s">
         <v>280</v>
       </c>
-      <c r="G18" t="s">
-        <v>341</v>
-      </c>
       <c r="H18" t="s">
-        <v>892</v>
+        <v>770</v>
       </c>
       <c r="I18">
         <v>98876</v>
       </c>
       <c r="J18" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K18" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3872,23 +3564,24 @@
       <c r="E19" t="s">
         <v>260</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>acoleman1</v>
+      </c>
+      <c r="G19" t="s">
         <v>281</v>
       </c>
-      <c r="G19" t="s">
-        <v>342</v>
-      </c>
       <c r="H19" t="s">
-        <v>893</v>
+        <v>771</v>
       </c>
       <c r="I19">
         <v>97136</v>
       </c>
       <c r="J19" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K19" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3907,26 +3600,30 @@
       <c r="E20" t="s">
         <v>255</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>swalters1</v>
+      </c>
+      <c r="G20" t="s">
         <v>282</v>
       </c>
-      <c r="G20" t="s">
-        <v>343</v>
-      </c>
       <c r="H20" t="s">
-        <v>894</v>
+        <v>772</v>
       </c>
       <c r="I20">
         <v>113715</v>
       </c>
       <c r="J20" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K20" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3935,8 +3632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3951,9 +3648,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>938</v>
-      </c>
+      <c r="A1" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3992,632 +3699,650 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s">
-        <v>817</v>
+        <v>695</v>
       </c>
       <c r="C3" s="2">
         <v>35124</v>
       </c>
       <c r="D3" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="E3" t="s">
         <v>257</v>
       </c>
-      <c r="F3" t="s">
-        <v>453</v>
+      <c r="F3" t="str">
+        <f>LOWER(LEFT(B3,1)&amp;IFERROR(MID(B3,FIND(" ",B3)+1,FIND(" ",B3,FIND(" ",B3)+1)-FIND(" ",B3)-1),MID(B3,FIND(" ",B3)+1,LEN(B3))))&amp;"1"</f>
+        <v>cwhite1</v>
       </c>
       <c r="G3" t="s">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="H3" t="s">
-        <v>455</v>
+        <v>393</v>
       </c>
       <c r="I3">
         <v>84685</v>
       </c>
       <c r="J3" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K3" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
-        <v>818</v>
+        <v>696</v>
       </c>
       <c r="C4" s="2">
         <v>31217</v>
       </c>
       <c r="D4" t="s">
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="E4" t="s">
         <v>259</v>
       </c>
-      <c r="F4" t="s">
-        <v>459</v>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F20" si="0">LOWER(LEFT(B4,1)&amp;IFERROR(MID(B4,FIND(" ",B4)+1,FIND(" ",B4,FIND(" ",B4)+1)-FIND(" ",B4)-1),MID(B4,FIND(" ",B4)+1,LEN(B4))))&amp;"1"</f>
+        <v>chunter1</v>
       </c>
       <c r="G4" t="s">
-        <v>460</v>
+        <v>397</v>
       </c>
       <c r="H4" t="s">
-        <v>461</v>
+        <v>398</v>
       </c>
       <c r="I4">
         <v>59442</v>
       </c>
       <c r="J4" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K4" t="s">
-        <v>462</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>400</v>
       </c>
       <c r="B5" t="s">
-        <v>819</v>
+        <v>697</v>
       </c>
       <c r="C5" s="2">
         <v>32888</v>
       </c>
       <c r="D5" t="s">
-        <v>464</v>
+        <v>401</v>
       </c>
       <c r="E5" t="s">
         <v>259</v>
       </c>
-      <c r="F5" t="s">
-        <v>465</v>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>bholt1</v>
       </c>
       <c r="G5" t="s">
-        <v>466</v>
+        <v>402</v>
       </c>
       <c r="H5" t="s">
-        <v>467</v>
+        <v>403</v>
       </c>
       <c r="I5">
         <v>96181</v>
       </c>
       <c r="J5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K5" t="s">
-        <v>468</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
-        <v>820</v>
+        <v>698</v>
       </c>
       <c r="C6" s="2">
         <v>33911</v>
       </c>
       <c r="D6" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="E6" t="s">
         <v>261</v>
       </c>
-      <c r="F6" t="s">
-        <v>471</v>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>dfletcher1</v>
       </c>
       <c r="G6" t="s">
-        <v>472</v>
+        <v>407</v>
       </c>
       <c r="H6" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="I6">
         <v>34039</v>
       </c>
       <c r="J6" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K6" t="s">
-        <v>474</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>475</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
-        <v>821</v>
+        <v>699</v>
       </c>
       <c r="C7" s="2">
         <v>26321</v>
       </c>
       <c r="D7" t="s">
-        <v>476</v>
+        <v>411</v>
       </c>
       <c r="E7" t="s">
         <v>261</v>
       </c>
-      <c r="F7" t="s">
-        <v>477</v>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>mcherry1</v>
       </c>
       <c r="G7" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="H7" t="s">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="I7">
         <v>118910</v>
       </c>
       <c r="J7" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K7" t="s">
-        <v>480</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>415</v>
       </c>
       <c r="B8" t="s">
-        <v>822</v>
+        <v>700</v>
       </c>
       <c r="C8" s="2">
         <v>35859</v>
       </c>
       <c r="D8" t="s">
-        <v>482</v>
+        <v>416</v>
       </c>
       <c r="E8" t="s">
         <v>264</v>
       </c>
-      <c r="F8" t="s">
-        <v>483</v>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>tmack1</v>
       </c>
       <c r="G8" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="H8" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="I8">
         <v>39635</v>
       </c>
       <c r="J8" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K8" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
-        <v>823</v>
+        <v>701</v>
       </c>
       <c r="C9" s="2">
         <v>36506</v>
       </c>
       <c r="D9" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="E9" t="s">
         <v>255</v>
       </c>
-      <c r="F9" t="s">
-        <v>489</v>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>rblair1</v>
       </c>
       <c r="G9" t="s">
-        <v>490</v>
+        <v>422</v>
       </c>
       <c r="H9" t="s">
-        <v>491</v>
+        <v>423</v>
       </c>
       <c r="I9">
         <v>52708</v>
       </c>
       <c r="J9" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K9" t="s">
-        <v>492</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
-        <v>824</v>
+        <v>702</v>
       </c>
       <c r="C10" s="2">
         <v>23343</v>
       </c>
       <c r="D10" t="s">
-        <v>494</v>
+        <v>426</v>
       </c>
       <c r="E10" t="s">
         <v>259</v>
       </c>
-      <c r="F10" t="s">
-        <v>495</v>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>mcooper1</v>
       </c>
       <c r="G10" t="s">
-        <v>496</v>
+        <v>427</v>
       </c>
       <c r="H10" t="s">
-        <v>497</v>
+        <v>428</v>
       </c>
       <c r="I10">
         <v>51863</v>
       </c>
       <c r="J10" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K10" t="s">
-        <v>498</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>430</v>
       </c>
       <c r="B11" t="s">
-        <v>825</v>
+        <v>703</v>
       </c>
       <c r="C11" s="2">
         <v>25135</v>
       </c>
       <c r="D11" t="s">
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="E11" t="s">
         <v>261</v>
       </c>
-      <c r="F11" t="s">
-        <v>501</v>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>esanders1</v>
       </c>
       <c r="G11" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="H11" t="s">
-        <v>503</v>
+        <v>433</v>
       </c>
       <c r="I11">
         <v>118327</v>
       </c>
       <c r="J11" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K11" t="s">
-        <v>504</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>505</v>
+        <v>435</v>
       </c>
       <c r="B12" t="s">
-        <v>826</v>
+        <v>704</v>
       </c>
       <c r="C12" s="2">
         <v>36949</v>
       </c>
       <c r="D12" t="s">
-        <v>506</v>
+        <v>436</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
-        <v>507</v>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>jtucker1</v>
       </c>
       <c r="G12" t="s">
-        <v>508</v>
+        <v>437</v>
       </c>
       <c r="H12" t="s">
-        <v>509</v>
+        <v>438</v>
       </c>
       <c r="I12">
         <v>73699</v>
       </c>
       <c r="J12" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K12" t="s">
-        <v>510</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s">
-        <v>827</v>
+        <v>705</v>
       </c>
       <c r="C13" s="2">
         <v>30643</v>
       </c>
       <c r="D13" t="s">
-        <v>512</v>
+        <v>441</v>
       </c>
       <c r="E13" t="s">
         <v>264</v>
       </c>
-      <c r="F13" t="s">
-        <v>513</v>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>wreid1</v>
       </c>
       <c r="G13" t="s">
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="H13" t="s">
-        <v>515</v>
+        <v>443</v>
       </c>
       <c r="I13">
         <v>107158</v>
       </c>
       <c r="J13" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K13" t="s">
-        <v>516</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>445</v>
       </c>
       <c r="B14" t="s">
-        <v>828</v>
+        <v>706</v>
       </c>
       <c r="C14" s="2">
         <v>31018</v>
       </c>
       <c r="D14" t="s">
-        <v>518</v>
+        <v>446</v>
       </c>
       <c r="E14" t="s">
         <v>260</v>
       </c>
-      <c r="F14" t="s">
-        <v>519</v>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>mquinn1</v>
       </c>
       <c r="G14" t="s">
-        <v>520</v>
+        <v>447</v>
       </c>
       <c r="H14" t="s">
-        <v>521</v>
+        <v>448</v>
       </c>
       <c r="I14">
         <v>96297</v>
       </c>
       <c r="J14" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K14" t="s">
-        <v>522</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>523</v>
+        <v>450</v>
       </c>
       <c r="B15" t="s">
-        <v>829</v>
+        <v>707</v>
       </c>
       <c r="C15" s="2">
         <v>32956</v>
       </c>
       <c r="D15" t="s">
-        <v>524</v>
+        <v>451</v>
       </c>
       <c r="E15" t="s">
         <v>261</v>
       </c>
-      <c r="F15" t="s">
-        <v>525</v>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>clong1</v>
       </c>
       <c r="G15" t="s">
-        <v>526</v>
+        <v>452</v>
       </c>
       <c r="H15" t="s">
-        <v>527</v>
+        <v>453</v>
       </c>
       <c r="I15">
         <v>104675</v>
       </c>
       <c r="J15" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K15" t="s">
-        <v>528</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>529</v>
+        <v>455</v>
       </c>
       <c r="B16" t="s">
-        <v>830</v>
+        <v>708</v>
       </c>
       <c r="C16" s="2">
         <v>24903</v>
       </c>
       <c r="D16" t="s">
-        <v>530</v>
+        <v>456</v>
       </c>
       <c r="E16" t="s">
         <v>257</v>
       </c>
-      <c r="F16" t="s">
-        <v>531</v>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>kchapman1</v>
       </c>
       <c r="G16" t="s">
-        <v>532</v>
+        <v>457</v>
       </c>
       <c r="H16" t="s">
-        <v>533</v>
+        <v>458</v>
       </c>
       <c r="I16">
         <v>50381</v>
       </c>
       <c r="J16" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K16" t="s">
-        <v>534</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>535</v>
+        <v>460</v>
       </c>
       <c r="B17" t="s">
-        <v>831</v>
+        <v>709</v>
       </c>
       <c r="C17" s="2">
         <v>25734</v>
       </c>
       <c r="D17" t="s">
-        <v>536</v>
+        <v>461</v>
       </c>
       <c r="E17" t="s">
         <v>264</v>
       </c>
-      <c r="F17" t="s">
-        <v>537</v>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>jbarrera1</v>
       </c>
       <c r="G17" t="s">
-        <v>538</v>
+        <v>462</v>
       </c>
       <c r="H17" t="s">
-        <v>539</v>
+        <v>463</v>
       </c>
       <c r="I17">
         <v>63393</v>
       </c>
       <c r="J17" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K17" t="s">
-        <v>540</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="B18" t="s">
-        <v>832</v>
+        <v>710</v>
       </c>
       <c r="C18" s="2">
         <v>35941</v>
       </c>
       <c r="D18" t="s">
-        <v>542</v>
+        <v>466</v>
       </c>
       <c r="E18" t="s">
         <v>255</v>
       </c>
-      <c r="F18" t="s">
-        <v>543</v>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>jcrane1</v>
       </c>
       <c r="G18" t="s">
-        <v>544</v>
+        <v>467</v>
       </c>
       <c r="H18" t="s">
-        <v>545</v>
+        <v>468</v>
       </c>
       <c r="I18">
         <v>89843</v>
       </c>
       <c r="J18" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K18" t="s">
-        <v>546</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>547</v>
+        <v>470</v>
       </c>
       <c r="B19" t="s">
-        <v>833</v>
+        <v>711</v>
       </c>
       <c r="C19" s="2">
         <v>28581</v>
       </c>
       <c r="D19" t="s">
-        <v>548</v>
+        <v>471</v>
       </c>
       <c r="E19" t="s">
         <v>257</v>
       </c>
-      <c r="F19" t="s">
-        <v>549</v>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>lmoore1</v>
       </c>
       <c r="G19" t="s">
-        <v>550</v>
+        <v>472</v>
       </c>
       <c r="H19" t="s">
-        <v>551</v>
+        <v>473</v>
       </c>
       <c r="I19">
         <v>107690</v>
       </c>
       <c r="J19" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K19" t="s">
-        <v>552</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>553</v>
+        <v>475</v>
       </c>
       <c r="B20" t="s">
-        <v>834</v>
+        <v>712</v>
       </c>
       <c r="C20" s="2">
         <v>26448</v>
       </c>
       <c r="D20" t="s">
-        <v>554</v>
+        <v>476</v>
       </c>
       <c r="E20" t="s">
         <v>256</v>
       </c>
-      <c r="F20" t="s">
-        <v>555</v>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>bbrown1</v>
       </c>
       <c r="G20" t="s">
-        <v>556</v>
+        <v>477</v>
       </c>
       <c r="H20" t="s">
-        <v>557</v>
+        <v>478</v>
       </c>
       <c r="I20">
         <v>66151</v>
       </c>
       <c r="J20" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K20" t="s">
-        <v>558</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -4747,7 +4472,11 @@
       <c r="C62" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="11" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4756,7 +4485,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4766,9 +4495,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>942</v>
-      </c>
+      <c r="A1" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4807,810 +4546,836 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>679</v>
+        <v>580</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>855</v>
+        <v>733</v>
       </c>
       <c r="C3" s="6">
         <v>30140</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>681</v>
+      <c r="F3" s="5" t="str">
+        <f>LOWER(LEFT(B3,1)&amp;IFERROR(MID(B3,FIND(" ",B3)+1,FIND(" ",B3,FIND(" ",B3)+1)-FIND(" ",B3)-1),MID(B3,FIND(" ",B3)+1,LEN(B3))))&amp;"1"</f>
+        <v>aparker1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>682</v>
+        <v>582</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>683</v>
+        <v>583</v>
       </c>
       <c r="I3" s="5">
         <v>44226</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>684</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>685</v>
+        <v>585</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>856</v>
+        <v>734</v>
       </c>
       <c r="C4" s="6">
         <v>34783</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>686</v>
+        <v>586</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>687</v>
+      <c r="F4" s="5" t="str">
+        <f t="shared" ref="F4:F25" si="0">LOWER(LEFT(B4,1)&amp;IFERROR(MID(B4,FIND(" ",B4)+1,FIND(" ",B4,FIND(" ",B4)+1)-FIND(" ",B4)-1),MID(B4,FIND(" ",B4)+1,LEN(B4))))&amp;"1"</f>
+        <v>jbolton1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>688</v>
+        <v>587</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>689</v>
+        <v>588</v>
       </c>
       <c r="I4" s="5">
         <v>107493</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>690</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>691</v>
+        <v>590</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>857</v>
+        <v>735</v>
       </c>
       <c r="C5" s="6">
         <v>36248</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>692</v>
+        <v>591</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>693</v>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>jschwartz1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>694</v>
+        <v>592</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>695</v>
+        <v>593</v>
       </c>
       <c r="I5" s="5">
         <v>43596</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>696</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>697</v>
+        <v>595</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>858</v>
+        <v>736</v>
       </c>
       <c r="C6" s="6">
         <v>34290</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>698</v>
+        <v>596</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>699</v>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>msmith1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>700</v>
+        <v>597</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>701</v>
+        <v>598</v>
       </c>
       <c r="I6" s="5">
         <v>112368</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>702</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>703</v>
+        <v>600</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>859</v>
+        <v>737</v>
       </c>
       <c r="C7" s="6">
         <v>28322</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>704</v>
+        <v>601</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>705</v>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>tjohnson1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>706</v>
+        <v>602</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>707</v>
+        <v>603</v>
       </c>
       <c r="I7" s="5">
         <v>107528</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>708</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>709</v>
+        <v>605</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>860</v>
+        <v>738</v>
       </c>
       <c r="C8" s="6">
         <v>29175</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>710</v>
+        <v>606</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>711</v>
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>sharrington1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>712</v>
+        <v>607</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>713</v>
+        <v>608</v>
       </c>
       <c r="I8" s="5">
         <v>60281</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>714</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>715</v>
+        <v>610</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>861</v>
+        <v>739</v>
       </c>
       <c r="C9" s="6">
         <v>34461</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>716</v>
+        <v>611</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>717</v>
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>aolsen1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>718</v>
+        <v>612</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>719</v>
+        <v>613</v>
       </c>
       <c r="I9" s="5">
         <v>78008</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>720</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>721</v>
+        <v>615</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>862</v>
+        <v>740</v>
       </c>
       <c r="C10" s="6">
         <v>31454</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>722</v>
+        <v>616</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>723</v>
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>mharrison1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>724</v>
+        <v>617</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>725</v>
+        <v>618</v>
       </c>
       <c r="I10" s="5">
         <v>54530</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>726</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>727</v>
+        <v>620</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>863</v>
+        <v>741</v>
       </c>
       <c r="C11" s="6">
         <v>32167</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>728</v>
+        <v>621</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>729</v>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>dtownsend1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>730</v>
+        <v>622</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>731</v>
+        <v>623</v>
       </c>
       <c r="I11" s="5">
         <v>33467</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>732</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>733</v>
+        <v>625</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>864</v>
+        <v>742</v>
       </c>
       <c r="C12" s="6">
         <v>26630</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>734</v>
+        <v>626</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>735</v>
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>mturner1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>736</v>
+        <v>627</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>737</v>
+        <v>628</v>
       </c>
       <c r="I12" s="5">
         <v>40716</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>738</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>739</v>
+        <v>630</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>865</v>
+        <v>743</v>
       </c>
       <c r="C13" s="6">
         <v>35744</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>740</v>
+        <v>631</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>741</v>
+      <c r="F13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>chernandez1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>742</v>
+        <v>632</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>743</v>
+        <v>633</v>
       </c>
       <c r="I13" s="5">
         <v>52901</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>744</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>745</v>
+        <v>635</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>866</v>
+        <v>744</v>
       </c>
       <c r="C14" s="6">
         <v>23613</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>746</v>
+        <v>636</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>747</v>
+      <c r="F14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>amartin1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>748</v>
+        <v>637</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>749</v>
+        <v>638</v>
       </c>
       <c r="I14" s="5">
         <v>90241</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>750</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>751</v>
+        <v>640</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>867</v>
+        <v>745</v>
       </c>
       <c r="C15" s="6">
         <v>34715</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>752</v>
+        <v>641</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>753</v>
+      <c r="F15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>kpatel1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>754</v>
+        <v>642</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>755</v>
+        <v>643</v>
       </c>
       <c r="I15" s="5">
         <v>59111</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>756</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>757</v>
+        <v>645</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>868</v>
+        <v>746</v>
       </c>
       <c r="C16" s="6">
         <v>23831</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>758</v>
+        <v>646</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>759</v>
+      <c r="F16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cperkins1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>760</v>
+        <v>647</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>761</v>
+        <v>648</v>
       </c>
       <c r="I16" s="5">
         <v>98623</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>762</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>763</v>
+        <v>650</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>869</v>
+        <v>747</v>
       </c>
       <c r="C17" s="6">
         <v>28791</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>764</v>
+        <v>651</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>765</v>
+      <c r="F17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>mmerritt1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>766</v>
+        <v>652</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>767</v>
+        <v>653</v>
       </c>
       <c r="I17" s="5">
         <v>30131</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>768</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>769</v>
+        <v>655</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>870</v>
+        <v>748</v>
       </c>
       <c r="C18" s="6">
         <v>23861</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>770</v>
+        <v>656</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>771</v>
+      <c r="F18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ipadilla1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>772</v>
+        <v>657</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>773</v>
+        <v>658</v>
       </c>
       <c r="I18" s="5">
         <v>92570</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>774</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>775</v>
+        <v>660</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>871</v>
+        <v>749</v>
       </c>
       <c r="C19" s="6">
         <v>37095</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>776</v>
+        <v>661</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>777</v>
+      <c r="F19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>estewart1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>778</v>
+        <v>662</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>779</v>
+        <v>663</v>
       </c>
       <c r="I19" s="5">
         <v>89864</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>780</v>
+        <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>781</v>
+        <v>665</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>872</v>
+        <v>750</v>
       </c>
       <c r="C20" s="6">
         <v>32879</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>782</v>
+        <v>666</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>783</v>
+      <c r="F20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>aleon1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>785</v>
+        <v>668</v>
       </c>
       <c r="I20" s="5">
         <v>107525</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>786</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>787</v>
+        <v>670</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>873</v>
+        <v>751</v>
       </c>
       <c r="C21" s="6">
         <v>31939</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>788</v>
+        <v>671</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>789</v>
+      <c r="F21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>dholloway1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>790</v>
+        <v>672</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>791</v>
+        <v>673</v>
       </c>
       <c r="I21" s="5">
         <v>31614</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>792</v>
+        <v>674</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>793</v>
+        <v>675</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>874</v>
+        <v>752</v>
       </c>
       <c r="C22" s="6">
         <v>34484</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>794</v>
+        <v>676</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>795</v>
+      <c r="F22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>swest1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>796</v>
+        <v>677</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>797</v>
+        <v>678</v>
       </c>
       <c r="I22" s="5">
         <v>65695</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>798</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>799</v>
+        <v>680</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>875</v>
+        <v>753</v>
       </c>
       <c r="C23" s="6">
         <v>28679</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>800</v>
+        <v>681</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>801</v>
+      <c r="F23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>thubbard1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>802</v>
+        <v>682</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>803</v>
+        <v>683</v>
       </c>
       <c r="I23" s="5">
         <v>67708</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>804</v>
+        <v>684</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>805</v>
+        <v>685</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>876</v>
+        <v>754</v>
       </c>
       <c r="C24" s="6">
         <v>26174</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>806</v>
+        <v>686</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>807</v>
+      <c r="F24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>dellis1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>808</v>
+        <v>687</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>809</v>
+        <v>688</v>
       </c>
       <c r="I24" s="5">
         <v>96827</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>810</v>
+        <v>689</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>811</v>
+        <v>690</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>944</v>
+        <v>822</v>
       </c>
       <c r="C25" s="6">
         <v>36036</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>812</v>
+        <v>691</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>813</v>
+      <c r="F25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>rharris1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>814</v>
+        <v>692</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>815</v>
+        <v>693</v>
       </c>
       <c r="I25" s="5">
         <v>113303</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>816</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5620,7 +5385,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5636,9 +5401,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>941</v>
-      </c>
+      <c r="A1" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5691,23 +5466,24 @@
       <c r="E3" t="s">
         <v>260</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="str">
+        <f>LOWER(LEFT(B3,1)&amp;IFERROR(MID(B3,FIND(" ",B3)+1,FIND(" ",B3,FIND(" ",B3)+1)-FIND(" ",B3)-1),MID(B3,FIND(" ",B3)+1,LEN(B3))))&amp;"1"</f>
+        <v>jgross1</v>
+      </c>
+      <c r="G3" t="s">
         <v>283</v>
       </c>
-      <c r="G3" t="s">
-        <v>344</v>
-      </c>
       <c r="H3" t="s">
-        <v>895</v>
+        <v>773</v>
       </c>
       <c r="I3">
         <v>111293</v>
       </c>
       <c r="J3" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K3" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -5726,23 +5502,24 @@
       <c r="E4" t="s">
         <v>258</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F21" si="0">LOWER(LEFT(B4,1)&amp;IFERROR(MID(B4,FIND(" ",B4)+1,FIND(" ",B4,FIND(" ",B4)+1)-FIND(" ",B4)-1),MID(B4,FIND(" ",B4)+1,LEN(B4))))&amp;"1"</f>
+        <v>sperkins1</v>
+      </c>
+      <c r="G4" t="s">
         <v>284</v>
       </c>
-      <c r="G4" t="s">
-        <v>345</v>
-      </c>
       <c r="H4" t="s">
-        <v>896</v>
+        <v>774</v>
       </c>
       <c r="I4">
         <v>64778</v>
       </c>
       <c r="J4" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K4" t="s">
-        <v>408</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -5761,23 +5538,24 @@
       <c r="E5" t="s">
         <v>257</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>jbarr1</v>
+      </c>
+      <c r="G5" t="s">
         <v>285</v>
       </c>
-      <c r="G5" t="s">
-        <v>346</v>
-      </c>
       <c r="H5" t="s">
-        <v>897</v>
+        <v>775</v>
       </c>
       <c r="I5">
         <v>34227</v>
       </c>
       <c r="J5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K5" t="s">
-        <v>409</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -5796,23 +5574,24 @@
       <c r="E6" t="s">
         <v>257</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>cparrish1</v>
+      </c>
+      <c r="G6" t="s">
         <v>286</v>
       </c>
-      <c r="G6" t="s">
-        <v>347</v>
-      </c>
       <c r="H6" t="s">
-        <v>898</v>
+        <v>776</v>
       </c>
       <c r="I6">
         <v>72214</v>
       </c>
       <c r="J6" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K6" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -5831,23 +5610,24 @@
       <c r="E7" t="s">
         <v>263</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>gshort1</v>
+      </c>
+      <c r="G7" t="s">
         <v>287</v>
       </c>
-      <c r="G7" t="s">
-        <v>348</v>
-      </c>
       <c r="H7" t="s">
-        <v>899</v>
+        <v>777</v>
       </c>
       <c r="I7">
         <v>89846</v>
       </c>
       <c r="J7" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K7" t="s">
-        <v>411</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -5866,23 +5646,24 @@
       <c r="E8" t="s">
         <v>256</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>kedwards1</v>
+      </c>
+      <c r="G8" t="s">
         <v>288</v>
       </c>
-      <c r="G8" t="s">
-        <v>349</v>
-      </c>
       <c r="H8" t="s">
-        <v>900</v>
+        <v>778</v>
       </c>
       <c r="I8">
         <v>85700</v>
       </c>
       <c r="J8" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K8" t="s">
-        <v>412</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -5901,23 +5682,24 @@
       <c r="E9" t="s">
         <v>259</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>cmiller1</v>
+      </c>
+      <c r="G9" t="s">
         <v>289</v>
       </c>
-      <c r="G9" t="s">
-        <v>350</v>
-      </c>
       <c r="H9" t="s">
-        <v>901</v>
+        <v>779</v>
       </c>
       <c r="I9">
         <v>67690</v>
       </c>
       <c r="J9" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K9" t="s">
-        <v>413</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -5936,23 +5718,24 @@
       <c r="E10" t="s">
         <v>258</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>jmunoz1</v>
+      </c>
+      <c r="G10" t="s">
         <v>290</v>
       </c>
-      <c r="G10" t="s">
-        <v>351</v>
-      </c>
       <c r="H10" t="s">
-        <v>902</v>
+        <v>780</v>
       </c>
       <c r="I10">
         <v>99300</v>
       </c>
       <c r="J10" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K10" t="s">
-        <v>414</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -5971,23 +5754,24 @@
       <c r="E11" t="s">
         <v>255</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>drodriguez1</v>
+      </c>
+      <c r="G11" t="s">
         <v>291</v>
       </c>
-      <c r="G11" t="s">
-        <v>352</v>
-      </c>
       <c r="H11" t="s">
-        <v>903</v>
+        <v>781</v>
       </c>
       <c r="I11">
         <v>99178</v>
       </c>
       <c r="J11" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K11" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -6006,23 +5790,24 @@
       <c r="E12" t="s">
         <v>262</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>celliott1</v>
+      </c>
+      <c r="G12" t="s">
         <v>292</v>
       </c>
-      <c r="G12" t="s">
-        <v>353</v>
-      </c>
       <c r="H12" t="s">
-        <v>904</v>
+        <v>782</v>
       </c>
       <c r="I12">
         <v>116126</v>
       </c>
       <c r="J12" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K12" t="s">
-        <v>416</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -6041,23 +5826,24 @@
       <c r="E13" t="s">
         <v>255</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>scummings1</v>
+      </c>
+      <c r="G13" t="s">
         <v>293</v>
       </c>
-      <c r="G13" t="s">
-        <v>354</v>
-      </c>
       <c r="H13" t="s">
-        <v>905</v>
+        <v>783</v>
       </c>
       <c r="I13">
         <v>52098</v>
       </c>
       <c r="J13" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K13" t="s">
-        <v>417</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -6076,23 +5862,24 @@
       <c r="E14" t="s">
         <v>264</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>strujillo1</v>
+      </c>
+      <c r="G14" t="s">
         <v>294</v>
       </c>
-      <c r="G14" t="s">
-        <v>355</v>
-      </c>
       <c r="H14" t="s">
-        <v>906</v>
+        <v>784</v>
       </c>
       <c r="I14">
         <v>40553</v>
       </c>
       <c r="J14" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K14" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -6111,23 +5898,24 @@
       <c r="E15" t="s">
         <v>264</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>jrodriguez1</v>
+      </c>
+      <c r="G15" t="s">
         <v>295</v>
       </c>
-      <c r="G15" t="s">
-        <v>356</v>
-      </c>
       <c r="H15" t="s">
-        <v>907</v>
+        <v>785</v>
       </c>
       <c r="I15">
         <v>78811</v>
       </c>
       <c r="J15" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K15" t="s">
-        <v>419</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -6146,23 +5934,24 @@
       <c r="E16" t="s">
         <v>260</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>wmejia1</v>
+      </c>
+      <c r="G16" t="s">
         <v>296</v>
       </c>
-      <c r="G16" t="s">
-        <v>357</v>
-      </c>
       <c r="H16" t="s">
-        <v>908</v>
+        <v>786</v>
       </c>
       <c r="I16">
         <v>103194</v>
       </c>
       <c r="J16" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K16" t="s">
-        <v>420</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -6181,23 +5970,24 @@
       <c r="E17" t="s">
         <v>257</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>rschaefer1</v>
+      </c>
+      <c r="G17" t="s">
         <v>297</v>
       </c>
-      <c r="G17" t="s">
-        <v>358</v>
-      </c>
       <c r="H17" t="s">
-        <v>909</v>
+        <v>787</v>
       </c>
       <c r="I17">
         <v>116085</v>
       </c>
       <c r="J17" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K17" t="s">
-        <v>421</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -6216,23 +6006,24 @@
       <c r="E18" t="s">
         <v>256</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>dgallagher1</v>
+      </c>
+      <c r="G18" t="s">
         <v>298</v>
       </c>
-      <c r="G18" t="s">
-        <v>359</v>
-      </c>
       <c r="H18" t="s">
-        <v>910</v>
+        <v>788</v>
       </c>
       <c r="I18">
         <v>57869</v>
       </c>
       <c r="J18" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K18" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -6251,23 +6042,24 @@
       <c r="E19" t="s">
         <v>261</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>amendoza1</v>
+      </c>
+      <c r="G19" t="s">
         <v>299</v>
       </c>
-      <c r="G19" t="s">
-        <v>360</v>
-      </c>
       <c r="H19" t="s">
-        <v>911</v>
+        <v>789</v>
       </c>
       <c r="I19">
         <v>76159</v>
       </c>
       <c r="J19" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K19" t="s">
-        <v>423</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -6286,23 +6078,24 @@
       <c r="E20" t="s">
         <v>255</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>rcampbell1</v>
+      </c>
+      <c r="G20" t="s">
         <v>300</v>
       </c>
-      <c r="G20" t="s">
-        <v>361</v>
-      </c>
       <c r="H20" t="s">
-        <v>912</v>
+        <v>790</v>
       </c>
       <c r="I20">
         <v>70025</v>
       </c>
       <c r="J20" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K20" t="s">
-        <v>424</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -6321,26 +6114,30 @@
       <c r="E21" t="s">
         <v>259</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>atyler1</v>
+      </c>
+      <c r="G21" t="s">
         <v>301</v>
       </c>
-      <c r="G21" t="s">
-        <v>362</v>
-      </c>
       <c r="H21" t="s">
-        <v>913</v>
+        <v>791</v>
       </c>
       <c r="I21">
         <v>46877</v>
       </c>
       <c r="J21" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K21" t="s">
-        <v>425</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6350,22 +6147,33 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="11" max="11" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>939</v>
-      </c>
+      <c r="A1" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6418,23 +6226,24 @@
       <c r="E3" t="s">
         <v>257</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="str">
+        <f>LOWER(LEFT(B3,1)&amp;IFERROR(MID(B3,FIND(" ",B3)+1,FIND(" ",B3,FIND(" ",B3)+1)-FIND(" ",B3)-1),MID(B3,FIND(" ",B3)+1,LEN(B3))))&amp;"1"</f>
+        <v>jpierce1</v>
+      </c>
+      <c r="G3" t="s">
         <v>302</v>
       </c>
-      <c r="G3" t="s">
-        <v>363</v>
-      </c>
       <c r="H3" t="s">
-        <v>914</v>
+        <v>792</v>
       </c>
       <c r="I3">
         <v>41253</v>
       </c>
       <c r="J3" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K3" t="s">
-        <v>426</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -6453,23 +6262,24 @@
       <c r="E4" t="s">
         <v>258</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F26" si="0">LOWER(LEFT(B4,1)&amp;IFERROR(MID(B4,FIND(" ",B4)+1,FIND(" ",B4,FIND(" ",B4)+1)-FIND(" ",B4)-1),MID(B4,FIND(" ",B4)+1,LEN(B4))))&amp;"1"</f>
+        <v>mleblanc1</v>
+      </c>
+      <c r="G4" t="s">
         <v>303</v>
       </c>
-      <c r="G4" t="s">
-        <v>364</v>
-      </c>
       <c r="H4" t="s">
-        <v>915</v>
+        <v>793</v>
       </c>
       <c r="I4">
         <v>35400</v>
       </c>
       <c r="J4" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K4" t="s">
-        <v>427</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -6488,23 +6298,24 @@
       <c r="E5" t="s">
         <v>260</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>jsingh1</v>
+      </c>
+      <c r="G5" t="s">
         <v>304</v>
       </c>
-      <c r="G5" t="s">
-        <v>365</v>
-      </c>
       <c r="H5" t="s">
-        <v>916</v>
+        <v>794</v>
       </c>
       <c r="I5">
         <v>67220</v>
       </c>
       <c r="J5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K5" t="s">
-        <v>428</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -6523,23 +6334,24 @@
       <c r="E6" t="s">
         <v>259</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>mrose1</v>
+      </c>
+      <c r="G6" t="s">
         <v>305</v>
       </c>
-      <c r="G6" t="s">
-        <v>366</v>
-      </c>
       <c r="H6" t="s">
-        <v>917</v>
+        <v>795</v>
       </c>
       <c r="I6">
         <v>106476</v>
       </c>
       <c r="J6" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K6" t="s">
-        <v>429</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -6558,23 +6370,24 @@
       <c r="E7" t="s">
         <v>259</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>dphillips1</v>
+      </c>
+      <c r="G7" t="s">
         <v>306</v>
       </c>
-      <c r="G7" t="s">
-        <v>367</v>
-      </c>
       <c r="H7" t="s">
-        <v>918</v>
+        <v>796</v>
       </c>
       <c r="I7">
         <v>30889</v>
       </c>
       <c r="J7" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K7" t="s">
-        <v>430</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -6593,23 +6406,24 @@
       <c r="E8" t="s">
         <v>262</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>kmiller1</v>
+      </c>
+      <c r="G8" t="s">
         <v>307</v>
       </c>
-      <c r="G8" t="s">
-        <v>368</v>
-      </c>
       <c r="H8" t="s">
-        <v>919</v>
+        <v>797</v>
       </c>
       <c r="I8">
         <v>90224</v>
       </c>
       <c r="J8" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K8" t="s">
-        <v>431</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -6628,23 +6442,24 @@
       <c r="E9" t="s">
         <v>257</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>phendrix1</v>
+      </c>
+      <c r="G9" t="s">
         <v>308</v>
       </c>
-      <c r="G9" t="s">
-        <v>369</v>
-      </c>
       <c r="H9" t="s">
-        <v>920</v>
+        <v>798</v>
       </c>
       <c r="I9">
         <v>60141</v>
       </c>
       <c r="J9" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K9" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -6663,23 +6478,24 @@
       <c r="E10" t="s">
         <v>257</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>klee1</v>
+      </c>
+      <c r="G10" t="s">
         <v>309</v>
       </c>
-      <c r="G10" t="s">
-        <v>370</v>
-      </c>
       <c r="H10" t="s">
-        <v>921</v>
+        <v>799</v>
       </c>
       <c r="I10">
         <v>39740</v>
       </c>
       <c r="J10" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K10" t="s">
-        <v>433</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -6698,23 +6514,24 @@
       <c r="E11" t="s">
         <v>257</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>hhansen1</v>
+      </c>
+      <c r="G11" t="s">
         <v>310</v>
       </c>
-      <c r="G11" t="s">
-        <v>371</v>
-      </c>
       <c r="H11" t="s">
-        <v>922</v>
+        <v>800</v>
       </c>
       <c r="I11">
         <v>42998</v>
       </c>
       <c r="J11" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K11" t="s">
-        <v>434</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -6733,23 +6550,24 @@
       <c r="E12" t="s">
         <v>256</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>adouglas1</v>
+      </c>
+      <c r="G12" t="s">
         <v>311</v>
       </c>
-      <c r="G12" t="s">
-        <v>372</v>
-      </c>
       <c r="H12" t="s">
-        <v>923</v>
+        <v>801</v>
       </c>
       <c r="I12">
         <v>114529</v>
       </c>
       <c r="J12" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K12" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -6768,23 +6586,24 @@
       <c r="E13" t="s">
         <v>263</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>pmiller1</v>
+      </c>
+      <c r="G13" t="s">
         <v>312</v>
       </c>
-      <c r="G13" t="s">
-        <v>373</v>
-      </c>
       <c r="H13" t="s">
-        <v>924</v>
+        <v>802</v>
       </c>
       <c r="I13">
         <v>84176</v>
       </c>
       <c r="J13" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K13" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -6803,23 +6622,24 @@
       <c r="E14" t="s">
         <v>261</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>kpatterson1</v>
+      </c>
+      <c r="G14" t="s">
         <v>313</v>
       </c>
-      <c r="G14" t="s">
-        <v>374</v>
-      </c>
       <c r="H14" t="s">
-        <v>925</v>
+        <v>803</v>
       </c>
       <c r="I14">
         <v>33187</v>
       </c>
       <c r="J14" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K14" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -6838,23 +6658,24 @@
       <c r="E15" t="s">
         <v>259</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>lnavarro1</v>
+      </c>
+      <c r="G15" t="s">
         <v>314</v>
       </c>
-      <c r="G15" t="s">
-        <v>375</v>
-      </c>
       <c r="H15" t="s">
-        <v>926</v>
+        <v>804</v>
       </c>
       <c r="I15">
         <v>97249</v>
       </c>
       <c r="J15" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K15" t="s">
-        <v>438</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -6873,23 +6694,24 @@
       <c r="E16" t="s">
         <v>258</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>tgallegos1</v>
+      </c>
+      <c r="G16" t="s">
         <v>315</v>
       </c>
-      <c r="G16" t="s">
-        <v>376</v>
-      </c>
       <c r="H16" t="s">
-        <v>927</v>
+        <v>805</v>
       </c>
       <c r="I16">
         <v>89789</v>
       </c>
       <c r="J16" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K16" t="s">
-        <v>439</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -6908,23 +6730,24 @@
       <c r="E17" t="s">
         <v>263</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>jlove1</v>
+      </c>
+      <c r="G17" t="s">
         <v>316</v>
       </c>
-      <c r="G17" t="s">
-        <v>377</v>
-      </c>
       <c r="H17" t="s">
-        <v>928</v>
+        <v>806</v>
       </c>
       <c r="I17">
         <v>30075</v>
       </c>
       <c r="J17" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K17" t="s">
-        <v>440</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -6943,23 +6766,24 @@
       <c r="E18" t="s">
         <v>259</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>nwoods1</v>
+      </c>
+      <c r="G18" t="s">
         <v>317</v>
       </c>
-      <c r="G18" t="s">
-        <v>378</v>
-      </c>
       <c r="H18" t="s">
-        <v>929</v>
+        <v>807</v>
       </c>
       <c r="I18">
         <v>49473</v>
       </c>
       <c r="J18" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K18" t="s">
-        <v>441</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -6978,23 +6802,24 @@
       <c r="E19" t="s">
         <v>259</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>rgreen1</v>
+      </c>
+      <c r="G19" t="s">
         <v>318</v>
       </c>
-      <c r="G19" t="s">
-        <v>379</v>
-      </c>
       <c r="H19" t="s">
-        <v>930</v>
+        <v>808</v>
       </c>
       <c r="I19">
         <v>58119</v>
       </c>
       <c r="J19" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K19" t="s">
-        <v>442</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -7013,23 +6838,24 @@
       <c r="E20" t="s">
         <v>264</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>jrasmussen1</v>
+      </c>
+      <c r="G20" t="s">
         <v>319</v>
       </c>
-      <c r="G20" t="s">
-        <v>380</v>
-      </c>
       <c r="H20" t="s">
-        <v>931</v>
+        <v>809</v>
       </c>
       <c r="I20">
         <v>101983</v>
       </c>
       <c r="J20" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K20" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -7048,23 +6874,24 @@
       <c r="E21" t="s">
         <v>255</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>bscott1</v>
+      </c>
+      <c r="G21" t="s">
         <v>320</v>
       </c>
-      <c r="G21" t="s">
-        <v>381</v>
-      </c>
       <c r="H21" t="s">
-        <v>932</v>
+        <v>810</v>
       </c>
       <c r="I21">
         <v>30330</v>
       </c>
       <c r="J21" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K21" t="s">
-        <v>444</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -7083,23 +6910,24 @@
       <c r="E22" t="s">
         <v>256</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>dlittle1</v>
+      </c>
+      <c r="G22" t="s">
         <v>321</v>
       </c>
-      <c r="G22" t="s">
-        <v>382</v>
-      </c>
       <c r="H22" t="s">
-        <v>933</v>
+        <v>811</v>
       </c>
       <c r="I22">
         <v>36772</v>
       </c>
       <c r="J22" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K22" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -7118,23 +6946,24 @@
       <c r="E23" t="s">
         <v>264</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>dnovak1</v>
+      </c>
+      <c r="G23" t="s">
         <v>322</v>
       </c>
-      <c r="G23" t="s">
-        <v>383</v>
-      </c>
       <c r="H23" t="s">
-        <v>934</v>
+        <v>812</v>
       </c>
       <c r="I23">
         <v>49701</v>
       </c>
       <c r="J23" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K23" t="s">
-        <v>446</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -7153,23 +6982,24 @@
       <c r="E24" t="s">
         <v>257</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>nclark1</v>
+      </c>
+      <c r="G24" t="s">
         <v>323</v>
       </c>
-      <c r="G24" t="s">
-        <v>384</v>
-      </c>
       <c r="H24" t="s">
-        <v>935</v>
+        <v>813</v>
       </c>
       <c r="I24">
         <v>47254</v>
       </c>
       <c r="J24" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K24" t="s">
-        <v>447</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -7188,23 +7018,24 @@
       <c r="E25" t="s">
         <v>255</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>dnelson1</v>
+      </c>
+      <c r="G25" t="s">
         <v>324</v>
       </c>
-      <c r="G25" t="s">
-        <v>385</v>
-      </c>
       <c r="H25" t="s">
-        <v>936</v>
+        <v>814</v>
       </c>
       <c r="I25">
         <v>110304</v>
       </c>
       <c r="J25" t="s">
+        <v>326</v>
+      </c>
+      <c r="K25" t="s">
         <v>387</v>
-      </c>
-      <c r="K25" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -7223,26 +7054,30 @@
       <c r="E26" t="s">
         <v>263</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>rhumphrey1</v>
+      </c>
+      <c r="G26" t="s">
         <v>325</v>
       </c>
-      <c r="G26" t="s">
-        <v>386</v>
-      </c>
       <c r="H26" t="s">
-        <v>940</v>
+        <v>818</v>
       </c>
       <c r="I26">
         <v>113492</v>
       </c>
       <c r="J26" t="s">
+        <v>327</v>
+      </c>
+      <c r="K26" t="s">
         <v>388</v>
       </c>
-      <c r="K26" t="s">
-        <v>449</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7251,8 +7086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA22C53-6A57-3644-A149-EA89B64BE383}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7264,9 +7099,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>943</v>
-      </c>
+      <c r="A1" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -7305,705 +7150,728 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>559</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
-        <v>835</v>
+        <v>713</v>
       </c>
       <c r="C3" s="2">
         <v>31631</v>
       </c>
       <c r="D3" t="s">
-        <v>560</v>
+        <v>481</v>
       </c>
       <c r="E3" t="s">
         <v>255</v>
       </c>
-      <c r="F3" t="s">
-        <v>561</v>
+      <c r="F3" t="str">
+        <f>LOWER(LEFT(B3,1)&amp;IFERROR(MID(B3,FIND(" ",B3)+1,FIND(" ",B3,FIND(" ",B3)+1)-FIND(" ",B3)-1),MID(B3,FIND(" ",B3)+1,LEN(B3))))&amp;"1"</f>
+        <v>myu1</v>
       </c>
       <c r="G3" t="s">
-        <v>562</v>
+        <v>482</v>
       </c>
       <c r="H3" t="s">
-        <v>563</v>
+        <v>483</v>
       </c>
       <c r="I3">
         <v>95112</v>
       </c>
       <c r="J3" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K3" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>485</v>
       </c>
       <c r="B4" t="s">
-        <v>836</v>
+        <v>714</v>
       </c>
       <c r="C4" s="2">
         <v>36429</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>486</v>
       </c>
       <c r="E4" t="s">
         <v>258</v>
       </c>
-      <c r="F4" t="s">
-        <v>567</v>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F22" si="0">LOWER(LEFT(B4,1)&amp;IFERROR(MID(B4,FIND(" ",B4)+1,FIND(" ",B4,FIND(" ",B4)+1)-FIND(" ",B4)-1),MID(B4,FIND(" ",B4)+1,LEN(B4))))&amp;"1"</f>
+        <v>cclay1</v>
       </c>
       <c r="G4" t="s">
-        <v>568</v>
+        <v>487</v>
       </c>
       <c r="H4" t="s">
-        <v>569</v>
+        <v>488</v>
       </c>
       <c r="I4">
         <v>32555</v>
       </c>
       <c r="J4" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K4" t="s">
-        <v>570</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>571</v>
+        <v>490</v>
       </c>
       <c r="B5" t="s">
-        <v>837</v>
+        <v>715</v>
       </c>
       <c r="C5" s="2">
         <v>31974</v>
       </c>
       <c r="D5" t="s">
-        <v>572</v>
+        <v>491</v>
       </c>
       <c r="E5" t="s">
         <v>257</v>
       </c>
-      <c r="F5" t="s">
-        <v>573</v>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>rbarker1</v>
       </c>
       <c r="G5" t="s">
-        <v>574</v>
+        <v>492</v>
       </c>
       <c r="H5" t="s">
-        <v>575</v>
+        <v>493</v>
       </c>
       <c r="I5">
         <v>111148</v>
       </c>
       <c r="J5" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K5" t="s">
-        <v>576</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>577</v>
+        <v>495</v>
       </c>
       <c r="B6" t="s">
-        <v>838</v>
+        <v>716</v>
       </c>
       <c r="C6" s="2">
         <v>28980</v>
       </c>
       <c r="D6" t="s">
-        <v>578</v>
+        <v>496</v>
       </c>
       <c r="E6" t="s">
         <v>262</v>
       </c>
-      <c r="F6" t="s">
-        <v>579</v>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>aprice1</v>
       </c>
       <c r="G6" t="s">
-        <v>580</v>
+        <v>497</v>
       </c>
       <c r="H6" t="s">
-        <v>581</v>
+        <v>498</v>
       </c>
       <c r="I6">
         <v>83752</v>
       </c>
       <c r="J6" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K6" t="s">
-        <v>582</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="B7" t="s">
-        <v>839</v>
+        <v>717</v>
       </c>
       <c r="C7" s="2">
         <v>36167</v>
       </c>
       <c r="D7" t="s">
-        <v>584</v>
+        <v>501</v>
       </c>
       <c r="E7" t="s">
         <v>257</v>
       </c>
-      <c r="F7" t="s">
-        <v>585</v>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>tbanks1</v>
       </c>
       <c r="G7" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="H7" t="s">
-        <v>587</v>
+        <v>503</v>
       </c>
       <c r="I7">
         <v>90533</v>
       </c>
       <c r="J7" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K7" t="s">
-        <v>588</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="B8" t="s">
-        <v>840</v>
+        <v>718</v>
       </c>
       <c r="C8" s="2">
         <v>38281</v>
       </c>
       <c r="D8" t="s">
-        <v>590</v>
+        <v>506</v>
       </c>
       <c r="E8" t="s">
         <v>258</v>
       </c>
-      <c r="F8" t="s">
-        <v>591</v>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>jramirez1</v>
       </c>
       <c r="G8" t="s">
-        <v>592</v>
+        <v>507</v>
       </c>
       <c r="H8" t="s">
-        <v>593</v>
+        <v>508</v>
       </c>
       <c r="I8">
         <v>44707</v>
       </c>
       <c r="J8" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K8" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s">
-        <v>841</v>
+        <v>719</v>
       </c>
       <c r="C9" s="2">
         <v>34037</v>
       </c>
       <c r="D9" t="s">
-        <v>596</v>
+        <v>511</v>
       </c>
       <c r="E9" t="s">
         <v>259</v>
       </c>
-      <c r="F9" t="s">
-        <v>597</v>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>jchristensen1</v>
       </c>
       <c r="G9" t="s">
-        <v>598</v>
+        <v>512</v>
       </c>
       <c r="H9" t="s">
-        <v>599</v>
+        <v>513</v>
       </c>
       <c r="I9">
         <v>62214</v>
       </c>
       <c r="J9" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K9" t="s">
-        <v>600</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>601</v>
+        <v>515</v>
       </c>
       <c r="B10" t="s">
-        <v>842</v>
+        <v>720</v>
       </c>
       <c r="C10" s="2">
         <v>25888</v>
       </c>
       <c r="D10" t="s">
-        <v>602</v>
+        <v>516</v>
       </c>
       <c r="E10" t="s">
         <v>259</v>
       </c>
-      <c r="F10" t="s">
-        <v>603</v>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>bwalters1</v>
       </c>
       <c r="G10" t="s">
-        <v>604</v>
+        <v>517</v>
       </c>
       <c r="H10" t="s">
-        <v>605</v>
+        <v>518</v>
       </c>
       <c r="I10">
         <v>100841</v>
       </c>
       <c r="J10" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K10" t="s">
-        <v>606</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>607</v>
+        <v>520</v>
       </c>
       <c r="B11" t="s">
-        <v>843</v>
+        <v>721</v>
       </c>
       <c r="C11" s="2">
         <v>28383</v>
       </c>
       <c r="D11" t="s">
-        <v>608</v>
+        <v>521</v>
       </c>
       <c r="E11" t="s">
         <v>264</v>
       </c>
-      <c r="F11" t="s">
-        <v>609</v>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>dtaylor1</v>
       </c>
       <c r="G11" t="s">
-        <v>610</v>
+        <v>522</v>
       </c>
       <c r="H11" t="s">
-        <v>611</v>
+        <v>523</v>
       </c>
       <c r="I11">
         <v>43195</v>
       </c>
       <c r="J11" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K11" t="s">
-        <v>612</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>613</v>
+        <v>525</v>
       </c>
       <c r="B12" t="s">
-        <v>844</v>
+        <v>722</v>
       </c>
       <c r="C12" s="2">
         <v>31365</v>
       </c>
       <c r="D12" t="s">
-        <v>614</v>
+        <v>526</v>
       </c>
       <c r="E12" t="s">
         <v>261</v>
       </c>
-      <c r="F12" t="s">
-        <v>615</v>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>hhughes1</v>
       </c>
       <c r="G12" t="s">
-        <v>616</v>
+        <v>527</v>
       </c>
       <c r="H12" t="s">
-        <v>617</v>
+        <v>528</v>
       </c>
       <c r="I12">
         <v>103298</v>
       </c>
       <c r="J12" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K12" t="s">
-        <v>618</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>619</v>
+        <v>530</v>
       </c>
       <c r="B13" t="s">
-        <v>845</v>
+        <v>723</v>
       </c>
       <c r="C13" s="2">
         <v>32522</v>
       </c>
       <c r="D13" t="s">
-        <v>620</v>
+        <v>531</v>
       </c>
       <c r="E13" t="s">
         <v>263</v>
       </c>
-      <c r="F13" t="s">
-        <v>621</v>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>klopez1</v>
       </c>
       <c r="G13" t="s">
-        <v>622</v>
+        <v>532</v>
       </c>
       <c r="H13" t="s">
-        <v>623</v>
+        <v>533</v>
       </c>
       <c r="I13">
         <v>91401</v>
       </c>
       <c r="J13" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K13" t="s">
-        <v>624</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>625</v>
+        <v>535</v>
       </c>
       <c r="B14" t="s">
-        <v>846</v>
+        <v>724</v>
       </c>
       <c r="C14" s="2">
         <v>35486</v>
       </c>
       <c r="D14" t="s">
-        <v>626</v>
+        <v>536</v>
       </c>
       <c r="E14" t="s">
         <v>255</v>
       </c>
-      <c r="F14" t="s">
-        <v>627</v>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>abonilla1</v>
       </c>
       <c r="G14" t="s">
-        <v>628</v>
+        <v>537</v>
       </c>
       <c r="H14" t="s">
-        <v>629</v>
+        <v>538</v>
       </c>
       <c r="I14">
         <v>66076</v>
       </c>
       <c r="J14" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>630</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>631</v>
+        <v>540</v>
       </c>
       <c r="B15" t="s">
-        <v>847</v>
+        <v>725</v>
       </c>
       <c r="C15" s="2">
         <v>24830</v>
       </c>
       <c r="D15" t="s">
-        <v>632</v>
+        <v>541</v>
       </c>
       <c r="E15" t="s">
         <v>261</v>
       </c>
-      <c r="F15" t="s">
-        <v>633</v>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>cstevenson1</v>
       </c>
       <c r="G15" t="s">
-        <v>634</v>
+        <v>542</v>
       </c>
       <c r="H15" t="s">
-        <v>635</v>
+        <v>543</v>
       </c>
       <c r="I15">
         <v>64183</v>
       </c>
       <c r="J15" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K15" t="s">
-        <v>636</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>637</v>
+        <v>545</v>
       </c>
       <c r="B16" t="s">
-        <v>848</v>
+        <v>726</v>
       </c>
       <c r="C16" s="2">
         <v>30497</v>
       </c>
       <c r="D16" t="s">
-        <v>638</v>
+        <v>546</v>
       </c>
       <c r="E16" t="s">
         <v>263</v>
       </c>
-      <c r="F16" t="s">
-        <v>639</v>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>sdixon1</v>
       </c>
       <c r="G16" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="H16" t="s">
-        <v>641</v>
+        <v>548</v>
       </c>
       <c r="I16">
         <v>80973</v>
       </c>
       <c r="J16" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K16" t="s">
-        <v>642</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>643</v>
+        <v>550</v>
       </c>
       <c r="B17" t="s">
-        <v>849</v>
+        <v>727</v>
       </c>
       <c r="C17" s="2">
         <v>37225</v>
       </c>
       <c r="D17" t="s">
-        <v>644</v>
+        <v>551</v>
       </c>
       <c r="E17" t="s">
         <v>257</v>
       </c>
-      <c r="F17" t="s">
-        <v>645</v>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>tbraun1</v>
       </c>
       <c r="G17" t="s">
-        <v>646</v>
+        <v>552</v>
       </c>
       <c r="H17" t="s">
-        <v>647</v>
+        <v>553</v>
       </c>
       <c r="I17">
         <v>106745</v>
       </c>
       <c r="J17" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K17" t="s">
-        <v>648</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>649</v>
+        <v>555</v>
       </c>
       <c r="B18" t="s">
-        <v>850</v>
+        <v>728</v>
       </c>
       <c r="C18" s="2">
         <v>23992</v>
       </c>
       <c r="D18" t="s">
-        <v>650</v>
+        <v>556</v>
       </c>
       <c r="E18" t="s">
         <v>264</v>
       </c>
-      <c r="F18" t="s">
-        <v>651</v>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>kwilcox1</v>
       </c>
       <c r="G18" t="s">
-        <v>652</v>
+        <v>557</v>
       </c>
       <c r="H18" t="s">
-        <v>653</v>
+        <v>558</v>
       </c>
       <c r="I18">
         <v>37228</v>
       </c>
       <c r="J18" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K18" t="s">
-        <v>654</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>655</v>
+        <v>560</v>
       </c>
       <c r="B19" t="s">
-        <v>851</v>
+        <v>729</v>
       </c>
       <c r="C19" s="2">
         <v>27344</v>
       </c>
       <c r="D19" t="s">
-        <v>656</v>
+        <v>561</v>
       </c>
       <c r="E19" t="s">
         <v>257</v>
       </c>
-      <c r="F19" t="s">
-        <v>657</v>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>yjennings1</v>
       </c>
       <c r="G19" t="s">
-        <v>658</v>
+        <v>562</v>
       </c>
       <c r="H19" t="s">
-        <v>659</v>
+        <v>563</v>
       </c>
       <c r="I19">
         <v>90027</v>
       </c>
       <c r="J19" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K19" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>661</v>
+        <v>565</v>
       </c>
       <c r="B20" t="s">
-        <v>852</v>
+        <v>730</v>
       </c>
       <c r="C20" s="2">
         <v>30269</v>
       </c>
       <c r="D20" t="s">
-        <v>662</v>
+        <v>566</v>
       </c>
       <c r="E20" t="s">
         <v>260</v>
       </c>
-      <c r="F20" t="s">
-        <v>663</v>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>dwaters1</v>
       </c>
       <c r="G20" t="s">
-        <v>664</v>
+        <v>567</v>
       </c>
       <c r="H20" t="s">
-        <v>665</v>
+        <v>568</v>
       </c>
       <c r="I20">
         <v>87447</v>
       </c>
       <c r="J20" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K20" t="s">
-        <v>666</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>667</v>
+        <v>570</v>
       </c>
       <c r="B21" t="s">
-        <v>853</v>
+        <v>731</v>
       </c>
       <c r="C21" s="2">
         <v>34746</v>
       </c>
       <c r="D21" t="s">
-        <v>668</v>
+        <v>571</v>
       </c>
       <c r="E21" t="s">
         <v>259</v>
       </c>
-      <c r="F21" t="s">
-        <v>669</v>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>cbaker1</v>
       </c>
       <c r="G21" t="s">
-        <v>670</v>
+        <v>572</v>
       </c>
       <c r="H21" t="s">
-        <v>671</v>
+        <v>573</v>
       </c>
       <c r="I21">
         <v>76783</v>
       </c>
       <c r="J21" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="K21" t="s">
-        <v>672</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>673</v>
+        <v>575</v>
       </c>
       <c r="B22" t="s">
-        <v>854</v>
+        <v>732</v>
       </c>
       <c r="C22" s="2">
         <v>37538</v>
       </c>
       <c r="D22" t="s">
-        <v>674</v>
+        <v>576</v>
       </c>
       <c r="E22" t="s">
         <v>259</v>
       </c>
-      <c r="F22" t="s">
-        <v>675</v>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>mjohns1</v>
       </c>
       <c r="G22" t="s">
-        <v>676</v>
+        <v>577</v>
       </c>
       <c r="H22" t="s">
-        <v>677</v>
+        <v>578</v>
       </c>
       <c r="I22">
         <v>118193</v>
       </c>
       <c r="J22" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="K22" t="s">
-        <v>678</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>